--- a/Client/Clear_2048/数据表/T_测试/TestEx.xlsx
+++ b/Client/Clear_2048/数据表/T_测试/TestEx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\game\FirstMiniGame\Client\Clear_2048\数据表\T_测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB253E-EA83-4A68-B596-A0D3114C9CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D613C27-7340-4E9A-8565-0E13997C0B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2610" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stirng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +244,10 @@
   </si>
   <si>
     <t>key_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -624,61 +624,61 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -742,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -837,16 +837,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -857,10 +857,10 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -899,10 +899,10 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -941,10 +941,10 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -969,10 +969,10 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>

--- a/Client/Clear_2048/数据表/T_测试/TestEx.xlsx
+++ b/Client/Clear_2048/数据表/T_测试/TestEx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\game\FirstMiniGame\Client\Clear_2048\数据表\T_测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D613C27-7340-4E9A-8565-0E13997C0B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27391A00-B794-431E-952B-515407E56391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2610" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28575" yWindow="3180" windowWidth="28680" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +606,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -629,6 +637,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
